--- a/fuentes/contenidos/grado06/guion12/cs_06_12_co_escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion12/cs_06_12_co_escaleta.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="223">
   <si>
     <t>Asignatura</t>
   </si>
@@ -123,6 +123,9 @@
     <t>Recursos F</t>
   </si>
   <si>
+    <t>Recurso F4_01</t>
+  </si>
+  <si>
     <t>RF_01_01_CO</t>
   </si>
   <si>
@@ -150,6 +153,9 @@
     <t>Recursos M</t>
   </si>
   <si>
+    <t>Recurso M101a_01</t>
+  </si>
+  <si>
     <t>RM_01_01_CO</t>
   </si>
   <si>
@@ -186,6 +192,9 @@
     <t>Elaborar actividades sobre las Clases de normas</t>
   </si>
   <si>
+    <t>Recurso M101A_02</t>
+  </si>
+  <si>
     <t>Normas en la Edad Antigua</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>Elaborar actividades sobre Normas en la Edad Antigua</t>
   </si>
   <si>
+    <t>Recurso M101A_03</t>
+  </si>
+  <si>
     <t>Normas en América precolombina</t>
   </si>
   <si>
@@ -243,15 +255,24 @@
     <t>Elaborar actividades sobre las normas en la América precolombina</t>
   </si>
   <si>
+    <t>Recurso M101A_04</t>
+  </si>
+  <si>
     <t>Competencias</t>
   </si>
   <si>
     <t>m102AB</t>
   </si>
   <si>
+    <t>Recurso M102AB_01</t>
+  </si>
+  <si>
     <t>f13</t>
   </si>
   <si>
+    <t>Recurso F13_01</t>
+  </si>
+  <si>
     <t>Fin del tema</t>
   </si>
   <si>
@@ -267,6 +288,9 @@
     <t>m4a</t>
   </si>
   <si>
+    <t>Recurso M4A_01</t>
+  </si>
+  <si>
     <t>Banco de actividades</t>
   </si>
   <si>
@@ -276,6 +300,9 @@
     <t>m101AP</t>
   </si>
   <si>
+    <t>Recurso M101AP_01</t>
+  </si>
+  <si>
     <t>M1A</t>
   </si>
   <si>
@@ -661,49 +688,19 @@
   </si>
   <si>
     <t>Recurso M5A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
-    <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101AP-01</t>
-  </si>
-  <si>
-    <t>Recurso F13-01</t>
-  </si>
-  <si>
-    <t>Recurso F4-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -872,24 +869,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -899,25 +896,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -927,22 +924,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,29 +945,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,52 +964,80 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1339,130 +1346,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="32" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="31" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.85546875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="79" style="31" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="34" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="255.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="6.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="7.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" customWidth="1"/>
-    <col min="20" max="20" width="41.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="28" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="29" t="s">
@@ -1473,7 +1480,7 @@
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="36" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="18">
@@ -1483,7 +1490,7 @@
         <v>31</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>27</v>
@@ -1511,10 +1518,10 @@
         <v>33</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="U3" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1524,40 +1531,40 @@
       <c r="B4" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="34" t="s">
+      <c r="E4" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="35">
+      <c r="F4" s="66"/>
+      <c r="G4" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="67">
         <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>37</v>
+      <c r="J4" s="68" t="s">
+        <v>38</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>31</v>
@@ -1566,16 +1573,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1585,40 +1592,40 @@
       <c r="B5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="35">
+      <c r="D5" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="G5" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="67">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>169</v>
+      <c r="J5" s="68" t="s">
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>31</v>
@@ -1627,16 +1634,16 @@
         <v>6</v>
       </c>
       <c r="R5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="37" t="s">
-        <v>175</v>
+        <v>43</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1646,38 +1653,38 @@
       <c r="B6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="35">
+      <c r="D6" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="67">
         <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>174</v>
+      <c r="J6" s="68" t="s">
+        <v>183</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="9" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>31</v>
@@ -1689,13 +1696,13 @@
         <v>32</v>
       </c>
       <c r="S6" t="s">
-        <v>177</v>
-      </c>
-      <c r="T6" s="37" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>187</v>
       </c>
       <c r="U6" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1705,38 +1712,38 @@
       <c r="B7" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="35">
+      <c r="D7" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="G7" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="67">
         <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>171</v>
+      <c r="J7" s="68" t="s">
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="9" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>31</v>
@@ -1748,13 +1755,13 @@
         <v>32</v>
       </c>
       <c r="S7" t="s">
-        <v>177</v>
-      </c>
-      <c r="T7" s="37" t="s">
-        <v>180</v>
+        <v>186</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>189</v>
       </c>
       <c r="U7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1764,40 +1771,40 @@
       <c r="B8" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="35">
+      <c r="D8" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="67">
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>53</v>
+      <c r="J8" s="68" t="s">
+        <v>55</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>31</v>
@@ -1806,16 +1813,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1825,38 +1832,38 @@
       <c r="B9" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" s="35">
+      <c r="D9" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="67">
         <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>182</v>
+      <c r="J9" s="68" t="s">
+        <v>191</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="9" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>27</v>
@@ -1868,13 +1875,13 @@
         <v>32</v>
       </c>
       <c r="S9" t="s">
-        <v>177</v>
-      </c>
-      <c r="T9" s="37" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="U9" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1884,40 +1891,40 @@
       <c r="B10" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" s="35">
+      <c r="D10" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="67">
         <v>8</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>186</v>
+      <c r="J10" s="68" t="s">
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>31</v>
@@ -1926,16 +1933,16 @@
         <v>6</v>
       </c>
       <c r="R10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" s="37" t="s">
-        <v>175</v>
+        <v>43</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1945,40 +1952,40 @@
       <c r="B11" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="35">
+      <c r="D11" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="67">
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>187</v>
+      <c r="J11" s="68" t="s">
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>31</v>
@@ -1987,16 +1994,16 @@
         <v>6</v>
       </c>
       <c r="R11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S11" t="s">
-        <v>42</v>
-      </c>
-      <c r="T11" s="37" t="s">
-        <v>189</v>
+        <v>43</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="U11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2006,40 +2013,40 @@
       <c r="B12" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="H12" s="35">
+      <c r="D12" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="66"/>
+      <c r="G12" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="67">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>192</v>
+      <c r="J12" s="68" t="s">
+        <v>201</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>31</v>
@@ -2048,16 +2055,16 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S12" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" s="37" t="s">
-        <v>191</v>
+        <v>43</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>200</v>
       </c>
       <c r="U12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2067,27 +2074,27 @@
       <c r="B13" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="35">
+      <c r="D13" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="66"/>
+      <c r="G13" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="67">
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>195</v>
+      <c r="J13" s="68" t="s">
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>27</v>
@@ -2096,11 +2103,11 @@
         <v>28</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="9" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>27</v>
@@ -2114,11 +2121,11 @@
       <c r="S13" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="37" t="s">
-        <v>197</v>
+      <c r="T13" s="35" t="s">
+        <v>206</v>
       </c>
       <c r="U13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2128,40 +2135,40 @@
       <c r="B14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="35">
+      <c r="D14" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="66"/>
+      <c r="G14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="67">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>67</v>
+      <c r="J14" s="68" t="s">
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>31</v>
@@ -2170,16 +2177,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2189,25 +2196,25 @@
       <c r="B15" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="35">
+      <c r="D15" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" s="67">
         <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>199</v>
+      <c r="J15" s="68" t="s">
+        <v>208</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>27</v>
@@ -2216,11 +2223,11 @@
         <v>28</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="9" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>31</v>
@@ -2234,11 +2241,11 @@
       <c r="S15" t="s">
         <v>33</v>
       </c>
-      <c r="T15" s="37" t="s">
-        <v>201</v>
+      <c r="T15" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="U15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2248,38 +2255,38 @@
       <c r="B16" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="H16" s="35">
+      <c r="D16" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="67">
         <v>14</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>211</v>
+      <c r="J16" s="68" t="s">
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>27</v>
@@ -2288,16 +2295,16 @@
         <v>6</v>
       </c>
       <c r="R16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S16" t="s">
-        <v>42</v>
-      </c>
-      <c r="T16" s="37" t="s">
-        <v>213</v>
+        <v>43</v>
+      </c>
+      <c r="T16" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="U16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2307,58 +2314,58 @@
       <c r="B17" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="35">
+      <c r="D17" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="66"/>
+      <c r="G17" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="67">
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>72</v>
+      <c r="J17" s="68" t="s">
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="10">
         <v>6</v>
       </c>
-      <c r="R17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="U17" t="s">
-        <v>34</v>
+      <c r="R17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2368,38 +2375,38 @@
       <c r="B18" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="H18" s="35">
+      <c r="D18" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="63"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="67">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>206</v>
+      <c r="J18" s="68" t="s">
+        <v>215</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>31</v>
@@ -2408,16 +2415,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2427,38 +2434,38 @@
       <c r="B19" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="H19" s="35">
+      <c r="D19" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="67">
         <v>17</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>203</v>
+      <c r="J19" s="68" t="s">
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="9" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>31</v>
@@ -2473,10 +2480,10 @@
         <v>33</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2486,31 +2493,31 @@
       <c r="B20" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="35">
+      <c r="D20" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="63"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="67">
         <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>78</v>
+      <c r="J20" s="68" t="s">
+        <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -2531,38 +2538,38 @@
       <c r="B21" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="35">
+      <c r="D21" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="63"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="67">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>80</v>
+      <c r="J21" s="68" t="s">
+        <v>87</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>31</v>
@@ -2571,16 +2578,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2590,38 +2597,38 @@
       <c r="B22" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="35">
+      <c r="D22" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="63"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="67">
         <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>83</v>
+      <c r="J22" s="68" t="s">
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>27</v>
@@ -2630,29 +2637,29 @@
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="68"/>
       <c r="K23" s="7"/>
       <c r="L23" s="6"/>
       <c r="M23" s="8"/>
@@ -2667,15 +2674,15 @@
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="68"/>
       <c r="K24" s="7"/>
       <c r="L24" s="6"/>
       <c r="M24" s="8"/>
@@ -2690,15 +2697,15 @@
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="15"/>
+      <c r="J25" s="68"/>
       <c r="K25" s="7"/>
       <c r="L25" s="6"/>
       <c r="M25" s="8"/>
@@ -2713,15 +2720,15 @@
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="15"/>
+      <c r="J26" s="68"/>
       <c r="K26" s="7"/>
       <c r="L26" s="6"/>
       <c r="M26" s="8"/>
@@ -2736,15 +2743,15 @@
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="15"/>
+      <c r="J27" s="68"/>
       <c r="K27" s="7"/>
       <c r="L27" s="6"/>
       <c r="M27" s="8"/>
@@ -2764,8 +2771,8 @@
       <c r="D28" s="14"/>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="5"/>
       <c r="J28" s="15"/>
       <c r="K28" s="7"/>
@@ -2787,8 +2794,8 @@
       <c r="D29" s="14"/>
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="5"/>
       <c r="J29" s="15"/>
       <c r="K29" s="7"/>
@@ -2810,8 +2817,8 @@
       <c r="D30" s="14"/>
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="5"/>
       <c r="J30" s="15"/>
       <c r="K30" s="7"/>
@@ -2833,8 +2840,8 @@
       <c r="D31" s="14"/>
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="5"/>
       <c r="J31" s="15"/>
       <c r="K31" s="7"/>
@@ -2856,8 +2863,8 @@
       <c r="D32" s="14"/>
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="5"/>
       <c r="J32" s="15"/>
       <c r="K32" s="7"/>
@@ -2879,8 +2886,8 @@
       <c r="D33" s="14"/>
       <c r="E33" s="13"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="5"/>
       <c r="J33" s="15"/>
       <c r="K33" s="7"/>
@@ -2902,8 +2909,8 @@
       <c r="D34" s="14"/>
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="5"/>
       <c r="J34" s="15"/>
       <c r="K34" s="7"/>
@@ -2925,8 +2932,8 @@
       <c r="D35" s="14"/>
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
       <c r="I35" s="5"/>
       <c r="J35" s="15"/>
       <c r="K35" s="7"/>
@@ -2948,8 +2955,8 @@
       <c r="D36" s="14"/>
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="5"/>
       <c r="J36" s="15"/>
       <c r="K36" s="7"/>
@@ -2971,8 +2978,8 @@
       <c r="D37" s="14"/>
       <c r="E37" s="13"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="5"/>
       <c r="J37" s="15"/>
       <c r="K37" s="7"/>
@@ -2994,8 +3001,8 @@
       <c r="D38" s="14"/>
       <c r="E38" s="13"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="5"/>
       <c r="J38" s="15"/>
       <c r="K38" s="7"/>
@@ -3017,8 +3024,8 @@
       <c r="D39" s="14"/>
       <c r="E39" s="13"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="5"/>
       <c r="J39" s="15"/>
       <c r="K39" s="7"/>
@@ -3040,8 +3047,8 @@
       <c r="D40" s="14"/>
       <c r="E40" s="13"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="5"/>
       <c r="J40" s="15"/>
       <c r="K40" s="7"/>
@@ -3063,8 +3070,8 @@
       <c r="D41" s="14"/>
       <c r="E41" s="13"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
       <c r="I41" s="5"/>
       <c r="J41" s="15"/>
       <c r="K41" s="7"/>
@@ -3086,8 +3093,8 @@
       <c r="D42" s="14"/>
       <c r="E42" s="13"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="5"/>
       <c r="J42" s="15"/>
       <c r="K42" s="7"/>
@@ -3109,8 +3116,8 @@
       <c r="D43" s="14"/>
       <c r="E43" s="13"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="5"/>
       <c r="J43" s="15"/>
       <c r="K43" s="7"/>
@@ -3132,8 +3139,8 @@
       <c r="D44" s="14"/>
       <c r="E44" s="13"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="35"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
       <c r="I44" s="5"/>
       <c r="J44" s="15"/>
       <c r="K44" s="7"/>
@@ -3155,8 +3162,8 @@
       <c r="D45" s="14"/>
       <c r="E45" s="13"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="35"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
       <c r="I45" s="5"/>
       <c r="J45" s="15"/>
       <c r="K45" s="7"/>
@@ -3178,8 +3185,8 @@
       <c r="D46" s="14"/>
       <c r="E46" s="13"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
       <c r="I46" s="5"/>
       <c r="J46" s="15"/>
       <c r="K46" s="7"/>
@@ -3201,8 +3208,8 @@
       <c r="D47" s="14"/>
       <c r="E47" s="13"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="35"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="33"/>
       <c r="I47" s="5"/>
       <c r="J47" s="15"/>
       <c r="K47" s="7"/>
@@ -3224,8 +3231,8 @@
       <c r="D48" s="14"/>
       <c r="E48" s="13"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="35"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="5"/>
       <c r="J48" s="15"/>
       <c r="K48" s="7"/>
@@ -3247,8 +3254,8 @@
       <c r="D49" s="14"/>
       <c r="E49" s="13"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="35"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="5"/>
       <c r="J49" s="15"/>
       <c r="K49" s="7"/>
@@ -3270,8 +3277,8 @@
       <c r="D50" s="14"/>
       <c r="E50" s="13"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="35"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
       <c r="I50" s="5"/>
       <c r="J50" s="15"/>
       <c r="K50" s="7"/>
@@ -3293,8 +3300,8 @@
       <c r="D51" s="14"/>
       <c r="E51" s="13"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="35"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="33"/>
       <c r="I51" s="5"/>
       <c r="J51" s="15"/>
       <c r="K51" s="7"/>
@@ -3316,8 +3323,8 @@
       <c r="D52" s="14"/>
       <c r="E52" s="13"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="35"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="33"/>
       <c r="I52" s="5"/>
       <c r="J52" s="15"/>
       <c r="K52" s="7"/>
@@ -3339,8 +3346,8 @@
       <c r="D53" s="14"/>
       <c r="E53" s="13"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="35"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="33"/>
       <c r="I53" s="5"/>
       <c r="J53" s="15"/>
       <c r="K53" s="7"/>
@@ -3362,8 +3369,8 @@
       <c r="D54" s="14"/>
       <c r="E54" s="13"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="33"/>
       <c r="I54" s="5"/>
       <c r="J54" s="15"/>
       <c r="K54" s="7"/>
@@ -3385,8 +3392,8 @@
       <c r="D55" s="14"/>
       <c r="E55" s="13"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="35"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="33"/>
       <c r="I55" s="5"/>
       <c r="J55" s="15"/>
       <c r="K55" s="7"/>
@@ -3408,8 +3415,8 @@
       <c r="D56" s="14"/>
       <c r="E56" s="13"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="35"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="5"/>
       <c r="J56" s="15"/>
       <c r="K56" s="7"/>
@@ -3431,8 +3438,8 @@
       <c r="D57" s="14"/>
       <c r="E57" s="13"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="35"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="33"/>
       <c r="I57" s="5"/>
       <c r="J57" s="15"/>
       <c r="K57" s="7"/>
@@ -3454,8 +3461,8 @@
       <c r="D58" s="14"/>
       <c r="E58" s="13"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="35"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="33"/>
       <c r="I58" s="5"/>
       <c r="J58" s="15"/>
       <c r="K58" s="7"/>
@@ -3477,8 +3484,8 @@
       <c r="D59" s="14"/>
       <c r="E59" s="13"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="35"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="33"/>
       <c r="I59" s="5"/>
       <c r="J59" s="15"/>
       <c r="K59" s="7"/>
@@ -3500,8 +3507,8 @@
       <c r="D60" s="14"/>
       <c r="E60" s="13"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="35"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="33"/>
       <c r="I60" s="5"/>
       <c r="J60" s="15"/>
       <c r="K60" s="7"/>
@@ -3523,8 +3530,8 @@
       <c r="D61" s="14"/>
       <c r="E61" s="13"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="35"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="33"/>
       <c r="I61" s="5"/>
       <c r="J61" s="15"/>
       <c r="K61" s="7"/>
@@ -3546,8 +3553,8 @@
       <c r="D62" s="14"/>
       <c r="E62" s="13"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="5"/>
       <c r="J62" s="15"/>
       <c r="K62" s="7"/>
@@ -3569,8 +3576,8 @@
       <c r="D63" s="14"/>
       <c r="E63" s="13"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="35"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="33"/>
       <c r="I63" s="5"/>
       <c r="J63" s="15"/>
       <c r="K63" s="7"/>
@@ -3592,8 +3599,8 @@
       <c r="D64" s="14"/>
       <c r="E64" s="13"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="35"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="33"/>
       <c r="I64" s="5"/>
       <c r="J64" s="15"/>
       <c r="K64" s="7"/>
@@ -3615,8 +3622,8 @@
       <c r="D65" s="14"/>
       <c r="E65" s="13"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="35"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="33"/>
       <c r="I65" s="5"/>
       <c r="J65" s="15"/>
       <c r="K65" s="7"/>
@@ -3638,8 +3645,8 @@
       <c r="D66" s="14"/>
       <c r="E66" s="13"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="35"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="5"/>
       <c r="J66" s="15"/>
       <c r="K66" s="7"/>
@@ -3661,8 +3668,8 @@
       <c r="D67" s="14"/>
       <c r="E67" s="13"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="35"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="33"/>
       <c r="I67" s="5"/>
       <c r="J67" s="15"/>
       <c r="K67" s="7"/>
@@ -3684,8 +3691,8 @@
       <c r="D68" s="14"/>
       <c r="E68" s="13"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="35"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="33"/>
       <c r="I68" s="5"/>
       <c r="J68" s="15"/>
       <c r="K68" s="7"/>
@@ -3707,8 +3714,8 @@
       <c r="D69" s="14"/>
       <c r="E69" s="13"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="35"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="33"/>
       <c r="I69" s="5"/>
       <c r="J69" s="15"/>
       <c r="K69" s="7"/>
@@ -3730,8 +3737,8 @@
       <c r="D70" s="14"/>
       <c r="E70" s="13"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="35"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="33"/>
       <c r="I70" s="5"/>
       <c r="J70" s="15"/>
       <c r="K70" s="7"/>
@@ -3761,187 +3768,187 @@
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4108,7 +4115,16 @@
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:U2">
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4123,12 +4139,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4201,30 +4211,30 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -4242,14 +4252,14 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -4264,11 +4274,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4280,11 +4290,11 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -4296,12 +4306,12 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4313,12 +4323,12 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -4333,7 +4343,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -4348,7 +4358,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4363,7 +4373,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -4378,7 +4388,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -4393,7 +4403,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -4408,7 +4418,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4423,7 +4433,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4438,7 +4448,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4453,7 +4463,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4467,7 +4477,7 @@
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4481,7 +4491,7 @@
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -4495,7 +4505,7 @@
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -4509,7 +4519,7 @@
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -4524,7 +4534,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -4539,7 +4549,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -4554,7 +4564,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -4569,7 +4579,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -4584,7 +4594,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -4599,7 +4609,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -4614,7 +4624,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -4629,7 +4639,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -4644,7 +4654,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -4659,7 +4669,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -4674,7 +4684,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -4689,7 +4699,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -4704,7 +4714,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -4719,7 +4729,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -4734,7 +4744,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -4749,7 +4759,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -4764,7 +4774,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -4779,7 +4789,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -4794,7 +4804,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -4809,7 +4819,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -4824,7 +4834,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4839,7 +4849,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4854,7 +4864,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -4869,7 +4879,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4884,7 +4894,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -4899,7 +4909,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -4914,7 +4924,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -4929,7 +4939,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>

--- a/fuentes/contenidos/grado06/guion12/cs_06_12_co_escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion12/cs_06_12_co_escaleta.xlsx
@@ -168,9 +168,6 @@
     <t>m5b</t>
   </si>
   <si>
-    <t xml:space="preserve">Elaborar preguntas de selección múltiple basadas en el vídeo: http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idreg=6877&amp;ruta=Buscador </t>
-  </si>
-  <si>
     <t>Las normas sociales</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>Normas en el Antiguo Egipto</t>
   </si>
   <si>
-    <t>Elaborar preguntas de selección múltiple basadas en el siguiente video: http://editorial.profesores.aulaplaneta.com//DesktopModules/PPP_UploadScorms/RecursoPopUp.aspx?RecursoID=615161</t>
-  </si>
-  <si>
     <t>Normas en la Antigua China</t>
   </si>
   <si>
@@ -564,21 +558,12 @@
     <t>Video para conocer la evolución del Derecho de la Edad Media a la Edad Moderna</t>
   </si>
   <si>
-    <t>Elaborar fichas para el estudiante y para el profesor. El video se toma de GEH: http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=DI000522&amp;ruta=Buscador</t>
-  </si>
-  <si>
     <t>Derecho de  familia</t>
   </si>
   <si>
-    <t xml:space="preserve"> Video sobre el origen del Derecho de familia</t>
-  </si>
-  <si>
     <t>Recurso M5D-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Escribir fichas para el estudiante y el profesor a partir del siguiente video: http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=DI000516&amp;ruta=Buscador    </t>
-  </si>
-  <si>
     <t>Recursos adicionales 01</t>
   </si>
   <si>
@@ -597,9 +582,6 @@
     <t xml:space="preserve">Video que muestra cambios en la legislación de las sociedades de la Antiguedad </t>
   </si>
   <si>
-    <t>Hacer fichas para el estudiante y para el profesor a partir del siguiente video: http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=DI000521&amp;ruta=Buscador</t>
-  </si>
-  <si>
     <t>Video como media principal - 03</t>
   </si>
   <si>
@@ -688,13 +670,146 @@
   </si>
   <si>
     <t>Recurso M5A-01</t>
+  </si>
+  <si>
+    <t>Video sobre el origen del Derecho de familia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elaborar preguntas de selección múltiple basadas en el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>video</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idreg=6877&amp;ruta=Buscador </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Escribir fichas para el estudiante y el profesor a partir del siguiente </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>video</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=DI000516&amp;ruta=Buscador    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elaborar fichas para el estudiante y para el profesor. El </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>video</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se toma de GEH: http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=DI000522&amp;ruta=Buscador</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hacer fichas para el estudiante y para el profesor a partir del siguiente </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>video</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=DI000521&amp;ruta=Buscador</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elaborar preguntas de selección múltiple basadas en el siguiente </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>video</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: http://editorial.profesores.aulaplaneta.com//DesktopModules/PPP_UploadScorms/RecursoPopUp.aspx?RecursoID=615161</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,6 +850,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -869,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -896,19 +1026,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,9 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -952,16 +1070,72 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,37 +1182,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,23 +1489,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="55" style="27" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="30" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="79.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
@@ -1375,182 +1518,182 @@
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:21" s="24" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="57" t="s">
+      <c r="U1" s="52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="28" t="s">
+    <row r="2" spans="1:21" s="24" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="58"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="36" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="16">
         <v>1</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" s="21" t="s">
+      <c r="J3" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="21">
         <v>6</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="47">
         <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="39" t="s">
         <v>38</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -1586,33 +1729,33 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="H5" s="67">
+      <c r="F5" s="37"/>
+      <c r="G5" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="47">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="68" t="s">
-        <v>178</v>
+      <c r="J5" s="39" t="s">
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>27</v>
@@ -1622,10 +1765,10 @@
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>49</v>
+        <v>156</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>218</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>31</v>
@@ -1639,52 +1782,52 @@
       <c r="S5" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="35" t="s">
-        <v>184</v>
+      <c r="T5" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="U5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="67">
+      <c r="E6" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="47">
         <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="68" t="s">
-        <v>183</v>
+      <c r="J6" s="39" t="s">
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="9" t="s">
-        <v>185</v>
+      <c r="O6" s="49" t="s">
+        <v>219</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>31</v>
@@ -1696,54 +1839,54 @@
         <v>32</v>
       </c>
       <c r="S6" t="s">
-        <v>186</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>187</v>
+        <v>181</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>182</v>
       </c>
       <c r="U6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="67">
+      <c r="E7" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="47">
         <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="68" t="s">
-        <v>180</v>
+      <c r="J7" s="39" t="s">
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="9" t="s">
-        <v>181</v>
+      <c r="O7" s="49" t="s">
+        <v>220</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>31</v>
@@ -1755,43 +1898,43 @@
         <v>32</v>
       </c>
       <c r="S7" t="s">
-        <v>186</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>189</v>
+        <v>181</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>184</v>
       </c>
       <c r="U7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="67">
+      <c r="F8" s="37"/>
+      <c r="G8" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="47">
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="68" t="s">
-        <v>55</v>
+      <c r="J8" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>27</v>
@@ -1804,7 +1947,7 @@
         <v>40</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>31</v>
@@ -1819,51 +1962,51 @@
         <v>43</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U8" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="67">
+      <c r="F9" s="37"/>
+      <c r="G9" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="47">
         <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="68" t="s">
-        <v>191</v>
+      <c r="J9" s="39" t="s">
+        <v>186</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="9" t="s">
-        <v>192</v>
+      <c r="O9" s="49" t="s">
+        <v>221</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>27</v>
@@ -1875,43 +2018,43 @@
         <v>32</v>
       </c>
       <c r="S9" t="s">
-        <v>186</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>193</v>
+        <v>181</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>187</v>
       </c>
       <c r="U9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="33" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" s="67">
+      <c r="H10" s="47">
         <v>8</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="68" t="s">
-        <v>195</v>
+      <c r="J10" s="39" t="s">
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>27</v>
@@ -1921,10 +2064,10 @@
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>61</v>
+        <v>156</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>222</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>31</v>
@@ -1938,41 +2081,41 @@
       <c r="S10" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="35" t="s">
-        <v>184</v>
+      <c r="T10" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="U10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="H11" s="67">
+      <c r="D11" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="47">
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="68" t="s">
-        <v>196</v>
+      <c r="J11" s="39" t="s">
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>27</v>
@@ -1982,10 +2125,10 @@
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>31</v>
@@ -1999,41 +2142,41 @@
       <c r="S11" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="35" t="s">
-        <v>198</v>
+      <c r="T11" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="U11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="67">
+      <c r="D12" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="47">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="68" t="s">
-        <v>201</v>
+      <c r="J12" s="39" t="s">
+        <v>195</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>27</v>
@@ -2043,10 +2186,10 @@
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>31</v>
@@ -2060,41 +2203,41 @@
       <c r="S12" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="35" t="s">
-        <v>200</v>
+      <c r="T12" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="U12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="H13" s="67">
+      <c r="D13" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="47">
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="68" t="s">
-        <v>204</v>
+      <c r="J13" s="39" t="s">
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>27</v>
@@ -2103,11 +2246,11 @@
         <v>28</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>27</v>
@@ -2121,41 +2264,41 @@
       <c r="S13" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="35" t="s">
-        <v>206</v>
+      <c r="T13" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="U13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="63" t="s">
+      <c r="D14" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="67">
+      <c r="F14" s="37"/>
+      <c r="G14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="47">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="68" t="s">
-        <v>70</v>
+      <c r="J14" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>27</v>
@@ -2168,7 +2311,7 @@
         <v>40</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>31</v>
@@ -2183,38 +2326,38 @@
         <v>43</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="H15" s="67">
+      <c r="D15" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="47">
         <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="68" t="s">
-        <v>208</v>
+      <c r="J15" s="39" t="s">
+        <v>202</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>27</v>
@@ -2223,11 +2366,11 @@
         <v>28</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>31</v>
@@ -2241,39 +2384,39 @@
       <c r="S15" t="s">
         <v>33</v>
       </c>
-      <c r="T15" s="35" t="s">
-        <v>210</v>
+      <c r="T15" s="31" t="s">
+        <v>204</v>
       </c>
       <c r="U15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="H16" s="67">
+      <c r="D16" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="47">
         <v>14</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="68" t="s">
-        <v>220</v>
+      <c r="J16" s="39" t="s">
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>27</v>
@@ -2283,10 +2426,10 @@
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>27</v>
@@ -2300,41 +2443,41 @@
       <c r="S16" t="s">
         <v>43</v>
       </c>
-      <c r="T16" s="35" t="s">
-        <v>222</v>
+      <c r="T16" s="31" t="s">
+        <v>216</v>
       </c>
       <c r="U16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="67">
+      <c r="H17" s="47">
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="68" t="s">
-        <v>76</v>
+      <c r="J17" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>27</v>
@@ -2347,7 +2490,7 @@
         <v>40</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>31</v>
@@ -2362,38 +2505,38 @@
         <v>43</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="H18" s="67">
+      <c r="D18" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="47">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="68" t="s">
-        <v>215</v>
+      <c r="J18" s="39" t="s">
+        <v>209</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>27</v>
@@ -2403,10 +2546,10 @@
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>31</v>
@@ -2421,38 +2564,38 @@
         <v>43</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="67">
+      <c r="D19" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="47">
         <v>17</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="68" t="s">
-        <v>212</v>
+      <c r="J19" s="39" t="s">
+        <v>206</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>27</v>
@@ -2461,11 +2604,11 @@
         <v>39</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>31</v>
@@ -2480,44 +2623,44 @@
         <v>33</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U19" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="67">
+      <c r="D20" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="47">
         <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="68" t="s">
-        <v>85</v>
+      <c r="J20" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -2532,31 +2675,31 @@
       <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="67">
+      <c r="H21" s="47">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="68" t="s">
-        <v>87</v>
+      <c r="J21" s="39" t="s">
+        <v>85</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>27</v>
@@ -2566,10 +2709,10 @@
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>31</v>
@@ -2584,38 +2727,38 @@
         <v>43</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="67">
+      <c r="D22" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="47">
         <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="68" t="s">
-        <v>91</v>
+      <c r="J22" s="39" t="s">
+        <v>89</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>27</v>
@@ -2625,10 +2768,10 @@
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>27</v>
@@ -2643,23 +2786,23 @@
         <v>43</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U22" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="67"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="38"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="68"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="7"/>
       <c r="L23" s="6"/>
       <c r="M23" s="8"/>
@@ -2674,15 +2817,15 @@
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="67"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="38"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="68"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="7"/>
       <c r="L24" s="6"/>
       <c r="M24" s="8"/>
@@ -2697,15 +2840,15 @@
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="67"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="68"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="7"/>
       <c r="L25" s="6"/>
       <c r="M25" s="8"/>
@@ -2720,15 +2863,15 @@
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="67"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="68"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="7"/>
       <c r="L26" s="6"/>
       <c r="M26" s="8"/>
@@ -2743,15 +2886,15 @@
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="67"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="38"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="68"/>
+      <c r="J27" s="39"/>
       <c r="K27" s="7"/>
       <c r="L27" s="6"/>
       <c r="M27" s="8"/>
@@ -2767,12 +2910,12 @@
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="30"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="14"/>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="5"/>
       <c r="J28" s="15"/>
       <c r="K28" s="7"/>
@@ -2790,12 +2933,12 @@
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="30"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="14"/>
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="5"/>
       <c r="J29" s="15"/>
       <c r="K29" s="7"/>
@@ -2813,12 +2956,12 @@
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="30"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="14"/>
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="5"/>
       <c r="J30" s="15"/>
       <c r="K30" s="7"/>
@@ -2836,12 +2979,12 @@
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="30"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="14"/>
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="5"/>
       <c r="J31" s="15"/>
       <c r="K31" s="7"/>
@@ -2859,12 +3002,12 @@
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="30"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="14"/>
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="5"/>
       <c r="J32" s="15"/>
       <c r="K32" s="7"/>
@@ -2882,12 +3025,12 @@
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="30"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="14"/>
       <c r="E33" s="13"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="5"/>
       <c r="J33" s="15"/>
       <c r="K33" s="7"/>
@@ -2905,12 +3048,12 @@
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="30"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="14"/>
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="5"/>
       <c r="J34" s="15"/>
       <c r="K34" s="7"/>
@@ -2928,12 +3071,12 @@
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="30"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="14"/>
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="5"/>
       <c r="J35" s="15"/>
       <c r="K35" s="7"/>
@@ -2951,12 +3094,12 @@
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="30"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="14"/>
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="5"/>
       <c r="J36" s="15"/>
       <c r="K36" s="7"/>
@@ -2974,12 +3117,12 @@
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="30"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="14"/>
       <c r="E37" s="13"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="5"/>
       <c r="J37" s="15"/>
       <c r="K37" s="7"/>
@@ -2997,12 +3140,12 @@
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="30"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="14"/>
       <c r="E38" s="13"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="5"/>
       <c r="J38" s="15"/>
       <c r="K38" s="7"/>
@@ -3020,12 +3163,12 @@
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
-      <c r="C39" s="30"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="14"/>
       <c r="E39" s="13"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
       <c r="I39" s="5"/>
       <c r="J39" s="15"/>
       <c r="K39" s="7"/>
@@ -3043,12 +3186,12 @@
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="30"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="14"/>
       <c r="E40" s="13"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
       <c r="I40" s="5"/>
       <c r="J40" s="15"/>
       <c r="K40" s="7"/>
@@ -3066,12 +3209,12 @@
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="30"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="14"/>
       <c r="E41" s="13"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="5"/>
       <c r="J41" s="15"/>
       <c r="K41" s="7"/>
@@ -3089,12 +3232,12 @@
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="30"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="14"/>
       <c r="E42" s="13"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
       <c r="I42" s="5"/>
       <c r="J42" s="15"/>
       <c r="K42" s="7"/>
@@ -3112,12 +3255,12 @@
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
-      <c r="C43" s="30"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="14"/>
       <c r="E43" s="13"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="5"/>
       <c r="J43" s="15"/>
       <c r="K43" s="7"/>
@@ -3135,12 +3278,12 @@
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="30"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="14"/>
       <c r="E44" s="13"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="5"/>
       <c r="J44" s="15"/>
       <c r="K44" s="7"/>
@@ -3158,12 +3301,12 @@
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
-      <c r="C45" s="30"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="14"/>
       <c r="E45" s="13"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
       <c r="I45" s="5"/>
       <c r="J45" s="15"/>
       <c r="K45" s="7"/>
@@ -3181,12 +3324,12 @@
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
-      <c r="C46" s="30"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="14"/>
       <c r="E46" s="13"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="5"/>
       <c r="J46" s="15"/>
       <c r="K46" s="7"/>
@@ -3204,12 +3347,12 @@
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
-      <c r="C47" s="30"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="14"/>
       <c r="E47" s="13"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
       <c r="I47" s="5"/>
       <c r="J47" s="15"/>
       <c r="K47" s="7"/>
@@ -3227,12 +3370,12 @@
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
-      <c r="C48" s="30"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="14"/>
       <c r="E48" s="13"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
       <c r="I48" s="5"/>
       <c r="J48" s="15"/>
       <c r="K48" s="7"/>
@@ -3250,12 +3393,12 @@
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="30"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="14"/>
       <c r="E49" s="13"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
       <c r="I49" s="5"/>
       <c r="J49" s="15"/>
       <c r="K49" s="7"/>
@@ -3273,12 +3416,12 @@
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="30"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="14"/>
       <c r="E50" s="13"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
       <c r="I50" s="5"/>
       <c r="J50" s="15"/>
       <c r="K50" s="7"/>
@@ -3296,12 +3439,12 @@
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="30"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="14"/>
       <c r="E51" s="13"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="33"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="5"/>
       <c r="J51" s="15"/>
       <c r="K51" s="7"/>
@@ -3319,12 +3462,12 @@
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="30"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="14"/>
       <c r="E52" s="13"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
       <c r="I52" s="5"/>
       <c r="J52" s="15"/>
       <c r="K52" s="7"/>
@@ -3342,12 +3485,12 @@
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="30"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="14"/>
       <c r="E53" s="13"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
       <c r="I53" s="5"/>
       <c r="J53" s="15"/>
       <c r="K53" s="7"/>
@@ -3365,12 +3508,12 @@
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="30"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="14"/>
       <c r="E54" s="13"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="33"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="29"/>
       <c r="I54" s="5"/>
       <c r="J54" s="15"/>
       <c r="K54" s="7"/>
@@ -3388,12 +3531,12 @@
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="30"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="14"/>
       <c r="E55" s="13"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="33"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29"/>
       <c r="I55" s="5"/>
       <c r="J55" s="15"/>
       <c r="K55" s="7"/>
@@ -3411,12 +3554,12 @@
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
-      <c r="C56" s="30"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="14"/>
       <c r="E56" s="13"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="33"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="29"/>
       <c r="I56" s="5"/>
       <c r="J56" s="15"/>
       <c r="K56" s="7"/>
@@ -3434,12 +3577,12 @@
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="30"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="14"/>
       <c r="E57" s="13"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="33"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="29"/>
       <c r="I57" s="5"/>
       <c r="J57" s="15"/>
       <c r="K57" s="7"/>
@@ -3457,12 +3600,12 @@
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="30"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="14"/>
       <c r="E58" s="13"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="33"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="29"/>
       <c r="I58" s="5"/>
       <c r="J58" s="15"/>
       <c r="K58" s="7"/>
@@ -3480,12 +3623,12 @@
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="30"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="14"/>
       <c r="E59" s="13"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="29"/>
       <c r="I59" s="5"/>
       <c r="J59" s="15"/>
       <c r="K59" s="7"/>
@@ -3503,12 +3646,12 @@
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="30"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="14"/>
       <c r="E60" s="13"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="33"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="29"/>
       <c r="I60" s="5"/>
       <c r="J60" s="15"/>
       <c r="K60" s="7"/>
@@ -3526,12 +3669,12 @@
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="30"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="14"/>
       <c r="E61" s="13"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29"/>
       <c r="I61" s="5"/>
       <c r="J61" s="15"/>
       <c r="K61" s="7"/>
@@ -3549,12 +3692,12 @@
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="30"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="14"/>
       <c r="E62" s="13"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
       <c r="I62" s="5"/>
       <c r="J62" s="15"/>
       <c r="K62" s="7"/>
@@ -3572,12 +3715,12 @@
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="30"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="14"/>
       <c r="E63" s="13"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="33"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
       <c r="I63" s="5"/>
       <c r="J63" s="15"/>
       <c r="K63" s="7"/>
@@ -3595,12 +3738,12 @@
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="30"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="14"/>
       <c r="E64" s="13"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29"/>
       <c r="I64" s="5"/>
       <c r="J64" s="15"/>
       <c r="K64" s="7"/>
@@ -3618,12 +3761,12 @@
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="30"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="14"/>
       <c r="E65" s="13"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="33"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
       <c r="I65" s="5"/>
       <c r="J65" s="15"/>
       <c r="K65" s="7"/>
@@ -3641,12 +3784,12 @@
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
-      <c r="C66" s="30"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="14"/>
       <c r="E66" s="13"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="33"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
       <c r="I66" s="5"/>
       <c r="J66" s="15"/>
       <c r="K66" s="7"/>
@@ -3664,12 +3807,12 @@
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
-      <c r="C67" s="30"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="14"/>
       <c r="E67" s="13"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="33"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="29"/>
       <c r="I67" s="5"/>
       <c r="J67" s="15"/>
       <c r="K67" s="7"/>
@@ -3687,12 +3830,12 @@
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="30"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="14"/>
       <c r="E68" s="13"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="33"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="29"/>
       <c r="I68" s="5"/>
       <c r="J68" s="15"/>
       <c r="K68" s="7"/>
@@ -3710,12 +3853,12 @@
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="30"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="14"/>
       <c r="E69" s="13"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="33"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="29"/>
       <c r="I69" s="5"/>
       <c r="J69" s="15"/>
       <c r="K69" s="7"/>
@@ -3733,12 +3876,12 @@
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="30"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="14"/>
       <c r="E70" s="13"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="33"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="29"/>
       <c r="I70" s="5"/>
       <c r="J70" s="15"/>
       <c r="K70" s="7"/>
@@ -3768,187 +3911,187 @@
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4119,12 +4262,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4139,6 +4276,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4211,30 +4354,30 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -4252,14 +4395,14 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -4278,7 +4421,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4290,11 +4433,11 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -4306,12 +4449,12 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4323,12 +4466,12 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -4343,7 +4486,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -4358,7 +4501,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4373,7 +4516,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -4388,7 +4531,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -4403,7 +4546,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -4418,7 +4561,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4433,7 +4576,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4448,7 +4591,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4463,7 +4606,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4477,7 +4620,7 @@
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4491,7 +4634,7 @@
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -4505,7 +4648,7 @@
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -4519,7 +4662,7 @@
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -4534,7 +4677,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -4549,7 +4692,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -4564,7 +4707,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -4579,7 +4722,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -4594,7 +4737,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -4624,7 +4767,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -4639,7 +4782,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -4654,7 +4797,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -4669,7 +4812,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -4684,7 +4827,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -4699,7 +4842,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -4714,7 +4857,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -4729,7 +4872,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -4744,7 +4887,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -4759,7 +4902,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -4774,7 +4917,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -4789,7 +4932,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -4804,7 +4947,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -4819,7 +4962,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -4834,7 +4977,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4849,7 +4992,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4864,7 +5007,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -4879,7 +5022,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4894,7 +5037,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -4924,7 +5067,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -4939,7 +5082,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>

--- a/fuentes/contenidos/grado06/guion12/cs_06_12_co_escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion12/cs_06_12_co_escaleta.xlsx
@@ -610,9 +610,6 @@
   </si>
   <si>
     <t>Conoce normas y legisladores de la Antigua Grecia</t>
-  </si>
-  <si>
-    <t>El Derecho romano</t>
   </si>
   <si>
     <t>Interactivo para conocer aspectos del derecho romano y su legado</t>
@@ -803,6 +800,9 @@
       </rPr>
       <t>: http://editorial.profesores.aulaplaneta.com//DesktopModules/PPP_UploadScorms/RecursoPopUp.aspx?RecursoID=615161</t>
     </r>
+  </si>
+  <si>
+    <t>El derecho romano</t>
   </si>
 </sst>
 </file>
@@ -1489,9 +1489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1768,7 @@
         <v>156</v>
       </c>
       <c r="O5" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>31</v>
@@ -1816,7 +1816,7 @@
         <v>31</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>27</v>
@@ -1827,7 +1827,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>31</v>
@@ -1886,7 +1886,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>31</v>
@@ -2006,7 +2006,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>27</v>
@@ -2067,7 +2067,7 @@
         <v>156</v>
       </c>
       <c r="O10" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>31</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="33" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="H13" s="47">
         <v>11</v>
@@ -2237,7 +2237,7 @@
         <v>31</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>27</v>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>27</v>
@@ -2265,7 +2265,7 @@
         <v>33</v>
       </c>
       <c r="T13" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U13" t="s">
         <v>35</v>
@@ -2348,7 +2348,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="37"/>
       <c r="G15" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H15" s="47">
         <v>13</v>
@@ -2357,7 +2357,7 @@
         <v>31</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>27</v>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>31</v>
@@ -2385,7 +2385,7 @@
         <v>33</v>
       </c>
       <c r="T15" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U15" t="s">
         <v>35</v>
@@ -2407,7 +2407,7 @@
       <c r="E16" s="34"/>
       <c r="F16" s="37"/>
       <c r="G16" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H16" s="47">
         <v>14</v>
@@ -2416,7 +2416,7 @@
         <v>27</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>27</v>
@@ -2429,7 +2429,7 @@
         <v>154</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>27</v>
@@ -2444,7 +2444,7 @@
         <v>43</v>
       </c>
       <c r="T16" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U16" t="s">
         <v>45</v>
@@ -2527,7 +2527,7 @@
       <c r="E18" s="34"/>
       <c r="F18" s="37"/>
       <c r="G18" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H18" s="47">
         <v>16</v>
@@ -2536,7 +2536,7 @@
         <v>27</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>27</v>
@@ -2549,7 +2549,7 @@
         <v>78</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>31</v>
@@ -2586,7 +2586,7 @@
       <c r="E19" s="34"/>
       <c r="F19" s="37"/>
       <c r="G19" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H19" s="47">
         <v>17</v>
@@ -2595,7 +2595,7 @@
         <v>27</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>27</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>31</v>
@@ -2712,7 +2712,7 @@
         <v>86</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>31</v>
@@ -2771,7 +2771,7 @@
         <v>90</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>27</v>
